--- a/excel/diem/AV/12a2.xlsx
+++ b/excel/diem/AV/12a2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\AV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D14C54-98F2-4CE2-92E8-EACCC5772AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE17D46E-EC19-4728-874A-1B6D96C7EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
@@ -66,17 +66,17 @@
     <t>AV</t>
   </si>
   <si>
+    <t>năm</t>
+  </si>
+  <si>
     <t>12a2</t>
-  </si>
-  <si>
-    <t>năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,31 +84,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDFDFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,13 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,13 +424,13 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J6"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -464,208 +441,208 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>2013410006</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>2013410002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>542012002</v>
+        <v>2019</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>542017001</v>
       </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>7</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>2014410011</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>2014410003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>542012002</v>
+        <v>2019</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>542017001</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>2014410012</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>2014410004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>542012002</v>
+        <v>2019</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>542017001</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
         <v>10</v>
       </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J4">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>2015410011</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>2015410003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>542012002</v>
+        <v>2019</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>542017001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J5">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>2015410012</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>2015410004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>542012002</v>
+        <v>2019</v>
       </c>
       <c r="E6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>542017001</v>
+      </c>
+      <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
         <v>7</v>
       </c>
-      <c r="G6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
-      </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2019</v>
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
